--- a/tests/advanced/randomized_tests/b01.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b01.stpprocessed_rand_results_test.xlsx
@@ -582,28 +582,28 @@
         <v>34</v>
       </c>
       <c r="D2">
-        <v>6.00726343691349E-05</v>
+        <v>0.0001182807609438896</v>
       </c>
       <c r="E2">
-        <v>0.01091938186436892</v>
+        <v>0.02107867179438472</v>
       </c>
       <c r="F2">
         <v>34</v>
       </c>
       <c r="G2">
-        <v>0.00122683634981513</v>
+        <v>0.002035129815340042</v>
       </c>
       <c r="H2">
-        <v>0.002061621285974979</v>
+        <v>0.003853811882436275</v>
       </c>
       <c r="I2">
-        <v>0.002072475850582123</v>
+        <v>0.003970915451645851</v>
       </c>
       <c r="J2">
-        <v>0.003767509013414383</v>
+        <v>0.007748536299914122</v>
       </c>
       <c r="K2">
-        <v>0.0005606436170637608</v>
+        <v>0.001373959239572287</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -615,28 +615,28 @@
         <v>34</v>
       </c>
       <c r="D3">
-        <v>0.0007100091315805912</v>
+        <v>0.0006056078709661961</v>
       </c>
       <c r="E3">
-        <v>0.01235598418861628</v>
+        <v>0.01406853832304478</v>
       </c>
       <c r="F3">
         <v>34</v>
       </c>
       <c r="G3">
-        <v>0.001311208121478558</v>
+        <v>0.001336473971605301</v>
       </c>
       <c r="H3">
-        <v>0.002801197580993176</v>
+        <v>0.003145434428006411</v>
       </c>
       <c r="I3">
-        <v>0.002225544769316912</v>
+        <v>0.002672490198165178</v>
       </c>
       <c r="J3">
-        <v>0.004195602610707283</v>
+        <v>0.005162716843187809</v>
       </c>
       <c r="K3">
-        <v>0.0005759554915130138</v>
+        <v>0.0005572894588112831</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -648,28 +648,28 @@
         <v>34</v>
       </c>
       <c r="D4">
-        <v>0.00112507026642561</v>
+        <v>0.0005990383215248585</v>
       </c>
       <c r="E4">
-        <v>0.01832144288346171</v>
+        <v>0.01383312372490764</v>
       </c>
       <c r="F4">
         <v>34</v>
       </c>
       <c r="G4">
-        <v>0.00201338529586792</v>
+        <v>0.001268480438739061</v>
       </c>
       <c r="H4">
-        <v>0.004116557538509369</v>
+        <v>0.003058651462197304</v>
       </c>
       <c r="I4">
-        <v>0.003249241504818201</v>
+        <v>0.002586016431450844</v>
       </c>
       <c r="J4">
-        <v>0.006121200043708086</v>
+        <v>0.004906681831926107</v>
       </c>
       <c r="K4">
-        <v>0.0008132536895573139</v>
+        <v>0.0006383815780282021</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -681,28 +681,28 @@
         <v>34</v>
       </c>
       <c r="D5">
-        <v>0.0001634322106838226</v>
+        <v>0.0001673344522714615</v>
       </c>
       <c r="E5">
-        <v>0.01832127897068858</v>
+        <v>0.02015670575201511</v>
       </c>
       <c r="F5">
         <v>34</v>
       </c>
       <c r="G5">
-        <v>0.002021406777203083</v>
+        <v>0.002040540799498558</v>
       </c>
       <c r="H5">
-        <v>0.003546596504747868</v>
+        <v>0.003819882404059172</v>
       </c>
       <c r="I5">
-        <v>0.003598832059651613</v>
+        <v>0.004338433500379324</v>
       </c>
       <c r="J5">
-        <v>0.006281790789216757</v>
+        <v>0.007055392023175955</v>
       </c>
       <c r="K5">
-        <v>0.0008543836884200573</v>
+        <v>0.0008724918588995934</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -714,28 +714,28 @@
         <v>81</v>
       </c>
       <c r="D6">
-        <v>0.001121647655963898</v>
+        <v>0.001372099854052067</v>
       </c>
       <c r="E6">
-        <v>0.04158901330083609</v>
+        <v>0.05951906181871891</v>
       </c>
       <c r="F6">
         <v>81</v>
       </c>
       <c r="G6">
-        <v>0.002984875347465277</v>
+        <v>0.003421592991799116</v>
       </c>
       <c r="H6">
-        <v>0.006082423962652683</v>
+        <v>0.007727768737822771</v>
       </c>
       <c r="I6">
-        <v>0.02152001159265637</v>
+        <v>0.03768706135451794</v>
       </c>
       <c r="J6">
-        <v>0.00661940174177289</v>
+        <v>0.006112938746809959</v>
       </c>
       <c r="K6">
-        <v>0.001339237205684185</v>
+        <v>0.001296191941946745</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -761,28 +761,28 @@
         <v>34</v>
       </c>
       <c r="D8">
-        <v>6.00726343691349E-05</v>
+        <v>0.0001182807609438896</v>
       </c>
       <c r="E8">
-        <v>0.01091938186436892</v>
+        <v>0.02107867179438472</v>
       </c>
       <c r="F8">
         <v>34</v>
       </c>
       <c r="G8">
-        <v>0.00122683634981513</v>
+        <v>0.002035129815340042</v>
       </c>
       <c r="H8">
-        <v>0.002061621285974979</v>
+        <v>0.003853811882436275</v>
       </c>
       <c r="I8">
-        <v>0.002072475850582123</v>
+        <v>0.003970915451645851</v>
       </c>
       <c r="J8">
-        <v>0.003767509013414383</v>
+        <v>0.007748536299914122</v>
       </c>
       <c r="K8">
-        <v>0.0005606436170637608</v>
+        <v>0.001373959239572287</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -794,28 +794,28 @@
         <v>34</v>
       </c>
       <c r="D9">
-        <v>0.0007100091315805912</v>
+        <v>0.0006056078709661961</v>
       </c>
       <c r="E9">
-        <v>0.01235598418861628</v>
+        <v>0.01406853832304478</v>
       </c>
       <c r="F9">
         <v>34</v>
       </c>
       <c r="G9">
-        <v>0.001311208121478558</v>
+        <v>0.001336473971605301</v>
       </c>
       <c r="H9">
-        <v>0.002801197580993176</v>
+        <v>0.003145434428006411</v>
       </c>
       <c r="I9">
-        <v>0.002225544769316912</v>
+        <v>0.002672490198165178</v>
       </c>
       <c r="J9">
-        <v>0.004195602610707283</v>
+        <v>0.005162716843187809</v>
       </c>
       <c r="K9">
-        <v>0.0005759554915130138</v>
+        <v>0.0005572894588112831</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -827,28 +827,28 @@
         <v>34</v>
       </c>
       <c r="D10">
-        <v>0.00112507026642561</v>
+        <v>0.0005990383215248585</v>
       </c>
       <c r="E10">
-        <v>0.01832144288346171</v>
+        <v>0.01383312372490764</v>
       </c>
       <c r="F10">
         <v>34</v>
       </c>
       <c r="G10">
-        <v>0.00201338529586792</v>
+        <v>0.001268480438739061</v>
       </c>
       <c r="H10">
-        <v>0.004116557538509369</v>
+        <v>0.003058651462197304</v>
       </c>
       <c r="I10">
-        <v>0.003249241504818201</v>
+        <v>0.002586016431450844</v>
       </c>
       <c r="J10">
-        <v>0.006121200043708086</v>
+        <v>0.004906681831926107</v>
       </c>
       <c r="K10">
-        <v>0.0008132536895573139</v>
+        <v>0.0006383815780282021</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -860,28 +860,28 @@
         <v>34</v>
       </c>
       <c r="D11">
-        <v>0.0001634322106838226</v>
+        <v>0.0001673344522714615</v>
       </c>
       <c r="E11">
-        <v>0.01832127897068858</v>
+        <v>0.02015670575201511</v>
       </c>
       <c r="F11">
         <v>34</v>
       </c>
       <c r="G11">
-        <v>0.002021406777203083</v>
+        <v>0.002040540799498558</v>
       </c>
       <c r="H11">
-        <v>0.003546596504747868</v>
+        <v>0.003819882404059172</v>
       </c>
       <c r="I11">
-        <v>0.003598832059651613</v>
+        <v>0.004338433500379324</v>
       </c>
       <c r="J11">
-        <v>0.006281790789216757</v>
+        <v>0.007055392023175955</v>
       </c>
       <c r="K11">
-        <v>0.0008543836884200573</v>
+        <v>0.0008724918588995934</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -893,28 +893,28 @@
         <v>81</v>
       </c>
       <c r="D12">
-        <v>0.001121647655963898</v>
+        <v>0.001372099854052067</v>
       </c>
       <c r="E12">
-        <v>0.04158901330083609</v>
+        <v>0.05951906181871891</v>
       </c>
       <c r="F12">
         <v>81</v>
       </c>
       <c r="G12">
-        <v>0.002984875347465277</v>
+        <v>0.003421592991799116</v>
       </c>
       <c r="H12">
-        <v>0.006082423962652683</v>
+        <v>0.007727768737822771</v>
       </c>
       <c r="I12">
-        <v>0.02152001159265637</v>
+        <v>0.03768706135451794</v>
       </c>
       <c r="J12">
-        <v>0.00661940174177289</v>
+        <v>0.006112938746809959</v>
       </c>
       <c r="K12">
-        <v>0.001339237205684185</v>
+        <v>0.001296191941946745</v>
       </c>
     </row>
     <row r="13" spans="1:11">

--- a/tests/advanced/randomized_tests/b01.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b01.stpprocessed_rand_results_test.xlsx
@@ -15,42 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Baseline-Kruskal</t>
   </si>
   <si>
-    <t>S*-BS</t>
-  </si>
-  <si>
     <t>S*-HS</t>
   </si>
   <si>
-    <t>S*-MM</t>
-  </si>
-  <si>
-    <t>S*-MM0</t>
-  </si>
-  <si>
-    <t>S*-unmerged</t>
-  </si>
-  <si>
     <t>var</t>
   </si>
   <si>
-    <t>S*-BSND</t>
-  </si>
-  <si>
     <t>S*-HSND</t>
-  </si>
-  <si>
-    <t>S*-MMND</t>
-  </si>
-  <si>
-    <t>S*-MM0ND</t>
-  </si>
-  <si>
-    <t>S*-unmergedND</t>
   </si>
   <si>
     <t>expanded_nodes</t>
@@ -444,13 +420,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,32 +439,8 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -499,33 +451,9 @@
         <v>94</v>
       </c>
       <c r="D2">
-        <v>94</v>
-      </c>
-      <c r="E2">
-        <v>94</v>
-      </c>
-      <c r="F2">
-        <v>94</v>
-      </c>
-      <c r="G2">
-        <v>94</v>
-      </c>
-      <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" t="b">
+      <c r="E2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -536,7 +464,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -544,395 +472,131 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="D2">
-        <v>0.0001182807609438896</v>
+        <v>0.001824263017624617</v>
       </c>
       <c r="E2">
-        <v>0.02107867179438472</v>
+        <v>0.0289624291472137</v>
       </c>
       <c r="F2">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="G2">
-        <v>0.002035129815340042</v>
+        <v>0.003390826750546694</v>
       </c>
       <c r="H2">
-        <v>0.003853811882436275</v>
+        <v>0.006821757648140192</v>
       </c>
       <c r="I2">
-        <v>0.003970915451645851</v>
+        <v>0.007266801316291094</v>
       </c>
       <c r="J2">
-        <v>0.007748536299914122</v>
+        <v>0.006088378839194775</v>
       </c>
       <c r="K2">
-        <v>0.001373959239572287</v>
+        <v>0.002177655231207609</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>34</v>
-      </c>
-      <c r="D3">
-        <v>0.0006056078709661961</v>
+        <v>450</v>
       </c>
       <c r="E3">
-        <v>0.01406853832304478</v>
-      </c>
-      <c r="F3">
-        <v>34</v>
-      </c>
-      <c r="G3">
-        <v>0.001336473971605301</v>
-      </c>
-      <c r="H3">
-        <v>0.003145434428006411</v>
-      </c>
-      <c r="I3">
-        <v>0.002672490198165178</v>
-      </c>
-      <c r="J3">
-        <v>0.005162716843187809</v>
-      </c>
-      <c r="K3">
-        <v>0.0005572894588112831</v>
+        <v>0.005769505631178617</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="D4">
-        <v>0.0005990383215248585</v>
+        <v>0.001824263017624617</v>
       </c>
       <c r="E4">
-        <v>0.01383312372490764</v>
+        <v>0.0289624291472137</v>
       </c>
       <c r="F4">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="G4">
-        <v>0.001268480438739061</v>
+        <v>0.003390826750546694</v>
       </c>
       <c r="H4">
-        <v>0.003058651462197304</v>
+        <v>0.006821757648140192</v>
       </c>
       <c r="I4">
-        <v>0.002586016431450844</v>
+        <v>0.007266801316291094</v>
       </c>
       <c r="J4">
-        <v>0.004906681831926107</v>
+        <v>0.006088378839194775</v>
       </c>
       <c r="K4">
-        <v>0.0006383815780282021</v>
+        <v>0.002177655231207609</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>34</v>
-      </c>
-      <c r="D5">
-        <v>0.0001673344522714615</v>
+        <v>450</v>
       </c>
       <c r="E5">
-        <v>0.02015670575201511</v>
-      </c>
-      <c r="F5">
-        <v>34</v>
-      </c>
-      <c r="G5">
-        <v>0.002040540799498558</v>
-      </c>
-      <c r="H5">
-        <v>0.003819882404059172</v>
-      </c>
-      <c r="I5">
-        <v>0.004338433500379324</v>
-      </c>
-      <c r="J5">
-        <v>0.007055392023175955</v>
-      </c>
-      <c r="K5">
-        <v>0.0008724918588995934</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>81</v>
-      </c>
-      <c r="D6">
-        <v>0.001372099854052067</v>
-      </c>
-      <c r="E6">
-        <v>0.05951906181871891</v>
-      </c>
-      <c r="F6">
-        <v>81</v>
-      </c>
-      <c r="G6">
-        <v>0.003421592991799116</v>
-      </c>
-      <c r="H6">
-        <v>0.007727768737822771</v>
-      </c>
-      <c r="I6">
-        <v>0.03768706135451794</v>
-      </c>
-      <c r="J6">
-        <v>0.006112938746809959</v>
-      </c>
-      <c r="K6">
-        <v>0.001296191941946745</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7">
-        <v>450</v>
-      </c>
-      <c r="E7">
-        <v>0.005769505631178617</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>34</v>
-      </c>
-      <c r="D8">
-        <v>0.0001182807609438896</v>
-      </c>
-      <c r="E8">
-        <v>0.02107867179438472</v>
-      </c>
-      <c r="F8">
-        <v>34</v>
-      </c>
-      <c r="G8">
-        <v>0.002035129815340042</v>
-      </c>
-      <c r="H8">
-        <v>0.003853811882436275</v>
-      </c>
-      <c r="I8">
-        <v>0.003970915451645851</v>
-      </c>
-      <c r="J8">
-        <v>0.007748536299914122</v>
-      </c>
-      <c r="K8">
-        <v>0.001373959239572287</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>34</v>
-      </c>
-      <c r="D9">
-        <v>0.0006056078709661961</v>
-      </c>
-      <c r="E9">
-        <v>0.01406853832304478</v>
-      </c>
-      <c r="F9">
-        <v>34</v>
-      </c>
-      <c r="G9">
-        <v>0.001336473971605301</v>
-      </c>
-      <c r="H9">
-        <v>0.003145434428006411</v>
-      </c>
-      <c r="I9">
-        <v>0.002672490198165178</v>
-      </c>
-      <c r="J9">
-        <v>0.005162716843187809</v>
-      </c>
-      <c r="K9">
-        <v>0.0005572894588112831</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>34</v>
-      </c>
-      <c r="D10">
-        <v>0.0005990383215248585</v>
-      </c>
-      <c r="E10">
-        <v>0.01383312372490764</v>
-      </c>
-      <c r="F10">
-        <v>34</v>
-      </c>
-      <c r="G10">
-        <v>0.001268480438739061</v>
-      </c>
-      <c r="H10">
-        <v>0.003058651462197304</v>
-      </c>
-      <c r="I10">
-        <v>0.002586016431450844</v>
-      </c>
-      <c r="J10">
-        <v>0.004906681831926107</v>
-      </c>
-      <c r="K10">
-        <v>0.0006383815780282021</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>34</v>
-      </c>
-      <c r="D11">
-        <v>0.0001673344522714615</v>
-      </c>
-      <c r="E11">
-        <v>0.02015670575201511</v>
-      </c>
-      <c r="F11">
-        <v>34</v>
-      </c>
-      <c r="G11">
-        <v>0.002040540799498558</v>
-      </c>
-      <c r="H11">
-        <v>0.003819882404059172</v>
-      </c>
-      <c r="I11">
-        <v>0.004338433500379324</v>
-      </c>
-      <c r="J11">
-        <v>0.007055392023175955</v>
-      </c>
-      <c r="K11">
-        <v>0.0008724918588995934</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>81</v>
-      </c>
-      <c r="D12">
-        <v>0.001372099854052067</v>
-      </c>
-      <c r="E12">
-        <v>0.05951906181871891</v>
-      </c>
-      <c r="F12">
-        <v>81</v>
-      </c>
-      <c r="G12">
-        <v>0.003421592991799116</v>
-      </c>
-      <c r="H12">
-        <v>0.007727768737822771</v>
-      </c>
-      <c r="I12">
-        <v>0.03768706135451794</v>
-      </c>
-      <c r="J12">
-        <v>0.006112938746809959</v>
-      </c>
-      <c r="K12">
-        <v>0.001296191941946745</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13">
-        <v>450</v>
-      </c>
-      <c r="E13">
         <v>0.005769505631178617</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/advanced/randomized_tests/b01.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b01.stpprocessed_rand_results_test.xlsx
@@ -15,18 +15,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>Baseline-Kruskal</t>
   </si>
   <si>
+    <t>S*-BS</t>
+  </si>
+  <si>
     <t>S*-HS</t>
   </si>
   <si>
+    <t>S*-MM</t>
+  </si>
+  <si>
+    <t>S*-MM0</t>
+  </si>
+  <si>
+    <t>S*-BS-UN</t>
+  </si>
+  <si>
+    <t>S*-HS-UN</t>
+  </si>
+  <si>
+    <t>S*-MM-UN</t>
+  </si>
+  <si>
+    <t>S*-MM0-UN</t>
+  </si>
+  <si>
     <t>var</t>
   </si>
   <si>
+    <t>S*-BSND</t>
+  </si>
+  <si>
     <t>S*-HSND</t>
+  </si>
+  <si>
+    <t>S*-MMND</t>
+  </si>
+  <si>
+    <t>S*-MM0ND</t>
+  </si>
+  <si>
+    <t>S*-BS-UNND</t>
+  </si>
+  <si>
+    <t>S*-HS-UNND</t>
+  </si>
+  <si>
+    <t>S*-MM-UNND</t>
+  </si>
+  <si>
+    <t>S*-MM0-UNND</t>
   </si>
   <si>
     <t>expanded_nodes</t>
@@ -420,13 +462,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,8 +481,50 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -451,9 +535,51 @@
         <v>94</v>
       </c>
       <c r="D2">
+        <v>94</v>
+      </c>
+      <c r="E2">
+        <v>94</v>
+      </c>
+      <c r="F2">
+        <v>94</v>
+      </c>
+      <c r="G2">
+        <v>94</v>
+      </c>
+      <c r="H2">
+        <v>94</v>
+      </c>
+      <c r="I2">
+        <v>94</v>
+      </c>
+      <c r="J2">
+        <v>94</v>
+      </c>
+      <c r="K2">
         <v>0</v>
       </c>
-      <c r="E2" t="b">
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -464,7 +590,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -472,131 +598,593 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="D2">
-        <v>0.001824263017624617</v>
+        <v>0.0001546833664178848</v>
       </c>
       <c r="E2">
-        <v>0.0289624291472137</v>
+        <v>0.01435370417311788</v>
       </c>
       <c r="F2">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="G2">
-        <v>0.003390826750546694</v>
+        <v>0.00194533821195364</v>
       </c>
       <c r="H2">
-        <v>0.006821757648140192</v>
+        <v>0.002769707702100277</v>
       </c>
       <c r="I2">
-        <v>0.007266801316291094</v>
+        <v>0.002815491519868374</v>
       </c>
       <c r="J2">
-        <v>0.006088378839194775</v>
+        <v>0.004024132154881954</v>
       </c>
       <c r="K2">
-        <v>0.002177655231207609</v>
+        <v>0.001153718680143356</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>450</v>
+        <v>83</v>
+      </c>
+      <c r="D3">
+        <v>0.002495845314115286</v>
       </c>
       <c r="E3">
-        <v>0.005769505631178617</v>
+        <v>0.04955938411876559</v>
+      </c>
+      <c r="F3">
+        <v>83</v>
+      </c>
+      <c r="G3">
+        <v>0.005235257558524609</v>
+      </c>
+      <c r="H3">
+        <v>0.01091711455956101</v>
+      </c>
+      <c r="I3">
+        <v>0.01183948758989573</v>
+      </c>
+      <c r="J3">
+        <v>0.01010002847760916</v>
+      </c>
+      <c r="K3">
+        <v>0.00321986572816968</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="D4">
-        <v>0.001824263017624617</v>
+        <v>0.0009799804538488388</v>
       </c>
       <c r="E4">
-        <v>0.0289624291472137</v>
+        <v>0.02079531596973538</v>
       </c>
       <c r="F4">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="G4">
-        <v>0.003390826750546694</v>
+        <v>0.002246284857392311</v>
       </c>
       <c r="H4">
-        <v>0.006821757648140192</v>
+        <v>0.006053712218999863</v>
       </c>
       <c r="I4">
-        <v>0.007266801316291094</v>
+        <v>0.003484013024717569</v>
       </c>
       <c r="J4">
-        <v>0.006088378839194775</v>
+        <v>0.005589816253632307</v>
       </c>
       <c r="K4">
-        <v>0.002177655231207609</v>
+        <v>0.00146323861554265</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C5">
+        <v>34</v>
+      </c>
+      <c r="D5">
+        <v>9.916489943861961E-05</v>
+      </c>
+      <c r="E5">
+        <v>0.01344189699739218</v>
+      </c>
+      <c r="F5">
+        <v>34</v>
+      </c>
+      <c r="G5">
+        <v>0.001741514541208744</v>
+      </c>
+      <c r="H5">
+        <v>0.002755601424723864</v>
+      </c>
+      <c r="I5">
+        <v>0.002625397406518459</v>
+      </c>
+      <c r="J5">
+        <v>0.003830433823168278</v>
+      </c>
+      <c r="K5">
+        <v>0.001126403454691172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>81</v>
+      </c>
+      <c r="D6">
+        <v>0.0003274828195571899</v>
+      </c>
+      <c r="E6">
+        <v>0.0372658739797771</v>
+      </c>
+      <c r="F6">
+        <v>81</v>
+      </c>
+      <c r="G6">
+        <v>0.003676358610391617</v>
+      </c>
+      <c r="H6">
+        <v>0.00607318663969636</v>
+      </c>
+      <c r="I6">
+        <v>0.01852661790326238</v>
+      </c>
+      <c r="J6">
+        <v>0.002977262251079082</v>
+      </c>
+      <c r="K6">
+        <v>0.002567201852798462</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>284</v>
+      </c>
+      <c r="D7">
+        <v>0.004282958339899778</v>
+      </c>
+      <c r="E7">
+        <v>0.142478127963841</v>
+      </c>
+      <c r="F7">
+        <v>284</v>
+      </c>
+      <c r="G7">
+        <v>0.01255559781566262</v>
+      </c>
+      <c r="H7">
+        <v>0.02271534968167543</v>
+      </c>
+      <c r="I7">
+        <v>0.07918545650318265</v>
+      </c>
+      <c r="J7">
+        <v>0.007024385500699282</v>
+      </c>
+      <c r="K7">
+        <v>0.009069295600056648</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>81</v>
+      </c>
+      <c r="D8">
+        <v>0.002557745203375816</v>
+      </c>
+      <c r="E8">
+        <v>0.05736952228471637</v>
+      </c>
+      <c r="F8">
+        <v>81</v>
+      </c>
+      <c r="G8">
+        <v>0.005329820793122053</v>
+      </c>
+      <c r="H8">
+        <v>0.01093540107831359</v>
+      </c>
+      <c r="I8">
+        <v>0.02678184537217021</v>
+      </c>
+      <c r="J8">
+        <v>0.005898891016840935</v>
+      </c>
+      <c r="K8">
+        <v>0.003451237455010414</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>81</v>
+      </c>
+      <c r="D9">
+        <v>0.0006517181172966957</v>
+      </c>
+      <c r="E9">
+        <v>0.04636306688189507</v>
+      </c>
+      <c r="F9">
+        <v>81</v>
+      </c>
+      <c r="G9">
+        <v>0.004617955535650253</v>
+      </c>
+      <c r="H9">
+        <v>0.00823191786184907</v>
+      </c>
+      <c r="I9">
+        <v>0.02294110646471381</v>
+      </c>
+      <c r="J9">
+        <v>0.003282250370830297</v>
+      </c>
+      <c r="K9">
+        <v>0.003005665261298418</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
         <v>450</v>
       </c>
-      <c r="E5">
+      <c r="E10">
+        <v>0.005769505631178617</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>34</v>
+      </c>
+      <c r="D11">
+        <v>0.0001546833664178848</v>
+      </c>
+      <c r="E11">
+        <v>0.01435370417311788</v>
+      </c>
+      <c r="F11">
+        <v>34</v>
+      </c>
+      <c r="G11">
+        <v>0.00194533821195364</v>
+      </c>
+      <c r="H11">
+        <v>0.002769707702100277</v>
+      </c>
+      <c r="I11">
+        <v>0.002815491519868374</v>
+      </c>
+      <c r="J11">
+        <v>0.004024132154881954</v>
+      </c>
+      <c r="K11">
+        <v>0.001153718680143356</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>83</v>
+      </c>
+      <c r="D12">
+        <v>0.002495845314115286</v>
+      </c>
+      <c r="E12">
+        <v>0.04955938411876559</v>
+      </c>
+      <c r="F12">
+        <v>83</v>
+      </c>
+      <c r="G12">
+        <v>0.005235257558524609</v>
+      </c>
+      <c r="H12">
+        <v>0.01091711455956101</v>
+      </c>
+      <c r="I12">
+        <v>0.01183948758989573</v>
+      </c>
+      <c r="J12">
+        <v>0.01010002847760916</v>
+      </c>
+      <c r="K12">
+        <v>0.00321986572816968</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>34</v>
+      </c>
+      <c r="D13">
+        <v>0.0009799804538488388</v>
+      </c>
+      <c r="E13">
+        <v>0.02079531596973538</v>
+      </c>
+      <c r="F13">
+        <v>34</v>
+      </c>
+      <c r="G13">
+        <v>0.002246284857392311</v>
+      </c>
+      <c r="H13">
+        <v>0.006053712218999863</v>
+      </c>
+      <c r="I13">
+        <v>0.003484013024717569</v>
+      </c>
+      <c r="J13">
+        <v>0.005589816253632307</v>
+      </c>
+      <c r="K13">
+        <v>0.00146323861554265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>34</v>
+      </c>
+      <c r="D14">
+        <v>9.916489943861961E-05</v>
+      </c>
+      <c r="E14">
+        <v>0.01344189699739218</v>
+      </c>
+      <c r="F14">
+        <v>34</v>
+      </c>
+      <c r="G14">
+        <v>0.001741514541208744</v>
+      </c>
+      <c r="H14">
+        <v>0.002755601424723864</v>
+      </c>
+      <c r="I14">
+        <v>0.002625397406518459</v>
+      </c>
+      <c r="J14">
+        <v>0.003830433823168278</v>
+      </c>
+      <c r="K14">
+        <v>0.001126403454691172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>81</v>
+      </c>
+      <c r="D15">
+        <v>0.0003274828195571899</v>
+      </c>
+      <c r="E15">
+        <v>0.0372658739797771</v>
+      </c>
+      <c r="F15">
+        <v>81</v>
+      </c>
+      <c r="G15">
+        <v>0.003676358610391617</v>
+      </c>
+      <c r="H15">
+        <v>0.00607318663969636</v>
+      </c>
+      <c r="I15">
+        <v>0.01852661790326238</v>
+      </c>
+      <c r="J15">
+        <v>0.002977262251079082</v>
+      </c>
+      <c r="K15">
+        <v>0.002567201852798462</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>284</v>
+      </c>
+      <c r="D16">
+        <v>0.004282958339899778</v>
+      </c>
+      <c r="E16">
+        <v>0.142478127963841</v>
+      </c>
+      <c r="F16">
+        <v>284</v>
+      </c>
+      <c r="G16">
+        <v>0.01255559781566262</v>
+      </c>
+      <c r="H16">
+        <v>0.02271534968167543</v>
+      </c>
+      <c r="I16">
+        <v>0.07918545650318265</v>
+      </c>
+      <c r="J16">
+        <v>0.007024385500699282</v>
+      </c>
+      <c r="K16">
+        <v>0.009069295600056648</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>81</v>
+      </c>
+      <c r="D17">
+        <v>0.002557745203375816</v>
+      </c>
+      <c r="E17">
+        <v>0.05736952228471637</v>
+      </c>
+      <c r="F17">
+        <v>81</v>
+      </c>
+      <c r="G17">
+        <v>0.005329820793122053</v>
+      </c>
+      <c r="H17">
+        <v>0.01093540107831359</v>
+      </c>
+      <c r="I17">
+        <v>0.02678184537217021</v>
+      </c>
+      <c r="J17">
+        <v>0.005898891016840935</v>
+      </c>
+      <c r="K17">
+        <v>0.003451237455010414</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>81</v>
+      </c>
+      <c r="D18">
+        <v>0.0006517181172966957</v>
+      </c>
+      <c r="E18">
+        <v>0.04636306688189507</v>
+      </c>
+      <c r="F18">
+        <v>81</v>
+      </c>
+      <c r="G18">
+        <v>0.004617955535650253</v>
+      </c>
+      <c r="H18">
+        <v>0.00823191786184907</v>
+      </c>
+      <c r="I18">
+        <v>0.02294110646471381</v>
+      </c>
+      <c r="J18">
+        <v>0.003282250370830297</v>
+      </c>
+      <c r="K18">
+        <v>0.003005665261298418</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19">
+        <v>450</v>
+      </c>
+      <c r="E19">
         <v>0.005769505631178617</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
